--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ПГНИУ2\3 курс\алгоритмы\Умножение матриц\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D348C53-400E-4A2D-BEA9-6F1F7030F601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18653C43-3ACA-4BAE-8CCF-F74112B7FF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6798" yWindow="756" windowWidth="16242" windowHeight="10302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2388" yWindow="1326" windowWidth="16242" windowHeight="10302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>0.0005</t>
   </si>
@@ -139,18 +139,185 @@
   </si>
   <si>
     <t>Время в ms</t>
+  </si>
+  <si>
+    <t>0.00125</t>
+  </si>
+  <si>
+    <t>0.00166667</t>
+  </si>
+  <si>
+    <t>0.00433333</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.0365</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>0.1365</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>0.1325</t>
+  </si>
+  <si>
+    <t>0.1345</t>
+  </si>
+  <si>
+    <t>0.1085</t>
+  </si>
+  <si>
+    <t>0.1425</t>
+  </si>
+  <si>
+    <t>0.8745</t>
+  </si>
+  <si>
+    <t>0.927</t>
+  </si>
+  <si>
+    <t>5.482</t>
+  </si>
+  <si>
+    <t>39.951</t>
+  </si>
+  <si>
+    <t>40.715</t>
+  </si>
+  <si>
+    <t>307.984</t>
+  </si>
+  <si>
+    <t>0.00075</t>
+  </si>
+  <si>
+    <t>0.00175</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.00133333</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.0305</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.0315</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.0255</t>
+  </si>
+  <si>
+    <t>0.0425</t>
+  </si>
+  <si>
+    <t>0.055</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>1.704</t>
+  </si>
+  <si>
+    <t>2.497</t>
+  </si>
+  <si>
+    <t>3.124</t>
+  </si>
+  <si>
+    <t>9.573</t>
+  </si>
+  <si>
+    <t>11.286</t>
+  </si>
+  <si>
+    <t>12.077</t>
+  </si>
+  <si>
+    <t>12.445</t>
+  </si>
+  <si>
+    <t>12.439</t>
+  </si>
+  <si>
+    <t>13.564</t>
+  </si>
+  <si>
+    <t>14.57</t>
+  </si>
+  <si>
+    <t>15.454</t>
+  </si>
+  <si>
+    <t>17.242</t>
+  </si>
+  <si>
+    <t>56.364</t>
+  </si>
+  <si>
+    <t>60.211</t>
+  </si>
+  <si>
+    <t>59.059</t>
+  </si>
+  <si>
+    <t>60.014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,8 +401,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -246,6 +425,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -528,15 +713,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:K5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -544,324 +729,702 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="3">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E5" s="7">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3">
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="3">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E7" s="7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3">
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E8" s="7">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="7">
+        <v>11</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="3">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E9" s="7">
+        <v>16</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="7">
+        <v>16</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3">
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E10" s="7">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="7">
+        <v>21</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="3">
         <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E11" s="7">
+        <v>26</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="7">
+        <v>26</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="3">
         <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E12" s="7">
+        <v>31</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="7">
+        <v>31</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="3">
         <v>36</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E13" s="7">
+        <v>36</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="7">
+        <v>36</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="3">
         <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E14" s="7">
+        <v>41</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="7">
+        <v>41</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="3">
         <v>46</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E15" s="7">
+        <v>46</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="7">
+        <v>46</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="3">
         <v>51</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E16" s="7">
+        <v>51</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="7">
+        <v>51</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="3">
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E17" s="7">
+        <v>56</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="7">
+        <v>56</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="3">
         <v>61</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E18" s="7">
+        <v>61</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="7">
+        <v>61</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="3">
         <v>66</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E19" s="7">
+        <v>66</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="7">
+        <v>66</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="3">
         <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E20" s="7">
+        <v>71</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="7">
+        <v>71</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="3">
         <v>183</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E21" s="7">
+        <v>183</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="7">
+        <v>183</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="3">
         <v>295</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E22" s="7">
+        <v>295</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="7">
+        <v>295</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="3">
         <v>407</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E23" s="7">
+        <v>407</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="7">
+        <v>407</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="3">
         <v>519</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E24" s="7">
+        <v>519</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="7">
+        <v>519</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="3">
         <v>631</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I25" s="7">
+        <v>631</v>
+      </c>
+      <c r="J25" s="9">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="3">
         <v>743</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I26" s="7">
+        <v>743</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="3">
         <v>855</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I27" s="7">
+        <v>855</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="3">
         <v>967</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I28" s="7">
+        <v>967</v>
+      </c>
+      <c r="J28" s="10">
+        <v>19419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="3">
         <v>1079</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I29" s="7">
+        <v>1079</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="3">
         <v>1191</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I30" s="7">
+        <v>1191</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="3">
         <v>1303</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I31" s="7">
+        <v>1303</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="3">
         <v>1415</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I32" s="7">
+        <v>1415</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="3">
         <v>1527</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I33" s="7">
+        <v>1527</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="3">
         <v>1639</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I34" s="7">
+        <v>1639</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="3">
         <v>1751</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I35" s="7">
+        <v>1751</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="3">
         <v>1863</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I36" s="7">
+        <v>1863</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="3">
         <v>1975</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I37" s="7">
+        <v>1975</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="3">
         <v>2087</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I38" s="7">
+        <v>2087</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="3">
         <v>2199</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I39" s="7">
+        <v>2199</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="3">
         <v>2311</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I40" s="7">
+        <v>2311</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="3">
         <v>2423</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2423</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
